--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H2">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J2">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>61.64231247765733</v>
+        <v>154.516095698492</v>
       </c>
       <c r="R2">
-        <v>554.780812298916</v>
+        <v>1390.644861286428</v>
       </c>
       <c r="S2">
-        <v>0.02452899456200153</v>
+        <v>0.05292835508619429</v>
       </c>
       <c r="T2">
-        <v>0.02452899456200153</v>
+        <v>0.05292835508619427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H3">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J3">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>149.2256844046306</v>
+        <v>166.594398951692</v>
       </c>
       <c r="R3">
-        <v>1343.031159641676</v>
+        <v>1499.349590565228</v>
       </c>
       <c r="S3">
-        <v>0.05938057568166123</v>
+        <v>0.05706568926186194</v>
       </c>
       <c r="T3">
-        <v>0.05938057568166123</v>
+        <v>0.05706568926186192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H4">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I4">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J4">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>61.31782773787867</v>
+        <v>80.47860537655602</v>
       </c>
       <c r="R4">
-        <v>551.860449640908</v>
+        <v>724.3074483890041</v>
       </c>
       <c r="S4">
-        <v>0.02439987409105281</v>
+        <v>0.02756735589879154</v>
       </c>
       <c r="T4">
-        <v>0.02439987409105281</v>
+        <v>0.02756735589879153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.679012</v>
+        <v>1.874436</v>
       </c>
       <c r="H5">
-        <v>5.037036</v>
+        <v>5.623308</v>
       </c>
       <c r="I5">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="J5">
-        <v>0.1178149724053671</v>
+        <v>0.1442186763702422</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>23.88775985559333</v>
+        <v>19.434881603604</v>
       </c>
       <c r="R5">
-        <v>214.98983870034</v>
+        <v>174.913934432436</v>
       </c>
       <c r="S5">
-        <v>0.009505528070651569</v>
+        <v>0.006657276123394417</v>
       </c>
       <c r="T5">
-        <v>0.009505528070651571</v>
+        <v>0.006657276123394415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.593937</v>
       </c>
       <c r="I6">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J6">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N6">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O6">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P6">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q6">
-        <v>117.408821863683</v>
+        <v>263.620219205013</v>
       </c>
       <c r="R6">
-        <v>1056.679396773147</v>
+        <v>2372.581972845117</v>
       </c>
       <c r="S6">
-        <v>0.04671986233594227</v>
+        <v>0.09030117223004282</v>
       </c>
       <c r="T6">
-        <v>0.04671986233594226</v>
+        <v>0.09030117223004279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.593937</v>
       </c>
       <c r="I7">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J7">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P7">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q7">
         <v>284.227036487313</v>
@@ -883,10 +883,10 @@
         <v>2558.043328385817</v>
       </c>
       <c r="S7">
-        <v>0.1131009391462737</v>
+        <v>0.097359886323118</v>
       </c>
       <c r="T7">
-        <v>0.1131009391462737</v>
+        <v>0.09735988632311797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9.593937</v>
       </c>
       <c r="I8">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J8">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N8">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O8">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P8">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q8">
-        <v>116.790782574129</v>
+        <v>137.304709226409</v>
       </c>
       <c r="R8">
-        <v>1051.117043167161</v>
+        <v>1235.742383037681</v>
       </c>
       <c r="S8">
-        <v>0.04647392927854653</v>
+        <v>0.04703272090904222</v>
       </c>
       <c r="T8">
-        <v>0.04647392927854653</v>
+        <v>0.04703272090904221</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9.593937</v>
       </c>
       <c r="I9">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="J9">
-        <v>0.2243997110431275</v>
+        <v>0.2460517715407892</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N9">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q9">
-        <v>45.498516017295</v>
+        <v>33.157890285831</v>
       </c>
       <c r="R9">
-        <v>409.486644155655</v>
+        <v>298.421012572479</v>
       </c>
       <c r="S9">
-        <v>0.01810498028236501</v>
+        <v>0.01135799207858617</v>
       </c>
       <c r="T9">
-        <v>0.01810498028236501</v>
+        <v>0.01135799207858617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H10">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I10">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J10">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N10">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O10">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P10">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q10">
-        <v>273.6946106293094</v>
+        <v>562.6316714997098</v>
       </c>
       <c r="R10">
-        <v>2463.251495663784</v>
+        <v>5063.685043497389</v>
       </c>
       <c r="S10">
-        <v>0.1089098274534849</v>
+        <v>0.1927253517328311</v>
       </c>
       <c r="T10">
-        <v>0.1089098274534848</v>
+        <v>0.1927253517328311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H11">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I11">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J11">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>266.631241</v>
       </c>
       <c r="O11">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P11">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q11">
-        <v>662.5686796520026</v>
+        <v>606.6117883769098</v>
       </c>
       <c r="R11">
-        <v>5963.118116868024</v>
+        <v>5459.506095392188</v>
       </c>
       <c r="S11">
-        <v>0.2636523986024568</v>
+        <v>0.2077904181408706</v>
       </c>
       <c r="T11">
-        <v>0.2636523986024568</v>
+        <v>0.2077904181408705</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H12">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I12">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J12">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N12">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O12">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P12">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q12">
-        <v>272.2538839443547</v>
+        <v>293.0426895546983</v>
       </c>
       <c r="R12">
-        <v>2450.284955499192</v>
+        <v>2637.384205992284</v>
       </c>
       <c r="S12">
-        <v>0.1083365268163066</v>
+        <v>0.1003796236117027</v>
       </c>
       <c r="T12">
-        <v>0.1083365268163065</v>
+        <v>0.1003796236117027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.454888</v>
+        <v>6.825289333333334</v>
       </c>
       <c r="H13">
-        <v>22.364664</v>
+        <v>20.475868</v>
       </c>
       <c r="I13">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="J13">
-        <v>0.5231037205243934</v>
+        <v>0.5251361975000832</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N13">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q13">
-        <v>106.0627168205733</v>
+        <v>70.76725484555068</v>
       </c>
       <c r="R13">
-        <v>954.5644513851601</v>
+        <v>636.9052936099561</v>
       </c>
       <c r="S13">
-        <v>0.04220496765214516</v>
+        <v>0.02424080401467887</v>
       </c>
       <c r="T13">
-        <v>0.04220496765214516</v>
+        <v>0.02424080401467886</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H14">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I14">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J14">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N14">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O14">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P14">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q14">
-        <v>70.46714740744312</v>
+        <v>90.63344084199166</v>
       </c>
       <c r="R14">
-        <v>634.2043266669881</v>
+        <v>815.700967577925</v>
       </c>
       <c r="S14">
-        <v>0.02804061376158519</v>
+        <v>0.03104582029388758</v>
       </c>
       <c r="T14">
-        <v>0.02804061376158519</v>
+        <v>0.03104582029388757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H15">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I15">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J15">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>266.631241</v>
       </c>
       <c r="O15">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P15">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q15">
-        <v>170.5891274557409</v>
+        <v>97.71812789949166</v>
       </c>
       <c r="R15">
-        <v>1535.302147101668</v>
+        <v>879.4631510954249</v>
       </c>
       <c r="S15">
-        <v>0.06788161591463834</v>
+        <v>0.03347262787376344</v>
       </c>
       <c r="T15">
-        <v>0.06788161591463834</v>
+        <v>0.03347262787376343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H16">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I16">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J16">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N16">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O16">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P16">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q16">
-        <v>70.09620879287155</v>
+        <v>47.20578064355834</v>
       </c>
       <c r="R16">
-        <v>630.865879135844</v>
+        <v>424.852025792025</v>
       </c>
       <c r="S16">
-        <v>0.02789300814956406</v>
+        <v>0.01616999386846167</v>
       </c>
       <c r="T16">
-        <v>0.02789300814956406</v>
+        <v>0.01616999386846167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.919382666666667</v>
+        <v>1.099475</v>
       </c>
       <c r="H17">
-        <v>5.758148</v>
+        <v>3.298425</v>
       </c>
       <c r="I17">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888541</v>
       </c>
       <c r="J17">
-        <v>0.134681596027112</v>
+        <v>0.08459335458888539</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N17">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O17">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P17">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q17">
-        <v>27.30757863095778</v>
+        <v>11.399784495775</v>
       </c>
       <c r="R17">
-        <v>245.76820767862</v>
+        <v>102.598060461975</v>
       </c>
       <c r="S17">
-        <v>0.01086635820132439</v>
+        <v>0.003904912552772715</v>
       </c>
       <c r="T17">
-        <v>0.01086635820132439</v>
+        <v>0.003904912552772713</v>
       </c>
     </row>
   </sheetData>
